--- a/ARTV.xlsx
+++ b/ARTV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331D49B0-683B-4169-A59C-1FBE82F8B9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6204B66-B407-468F-95AB-3D03618552F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28605" yWindow="450" windowWidth="24720" windowHeight="14790" xr2:uid="{EC5D0CAF-E534-4D3C-A0C8-B9D37F8C1A04}"/>
+    <workbookView xWindow="-25560" yWindow="0" windowWidth="25185" windowHeight="14340" xr2:uid="{EC5D0CAF-E534-4D3C-A0C8-B9D37F8C1A04}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Price</t>
   </si>
@@ -57,9 +57,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q224</t>
-  </si>
-  <si>
     <t>Founded: 2019</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>MOA</t>
   </si>
   <si>
-    <t>Allogeneic NK cells</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -94,6 +88,51 @@
   </si>
   <si>
     <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>7/22/24: Sold 13,920,000 shares in IPO at $12 for $151m net.</t>
+  </si>
+  <si>
+    <t>AB-101</t>
+  </si>
+  <si>
+    <t>AB-201</t>
+  </si>
+  <si>
+    <t>AV-205</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Affimed</t>
+  </si>
+  <si>
+    <t>Allogeneic, off-the-shelf NK cells</t>
+  </si>
+  <si>
+    <t>1H25: initial autoimmune data</t>
+  </si>
+  <si>
+    <t>Phase I/II B-NHL</t>
+  </si>
+  <si>
+    <t>basket IIT - combination with rituximab in RA, PV, granulomatosis, SLE</t>
+  </si>
+  <si>
+    <t>Phase I/Ib SLE with rituximab or obinutuzumab</t>
   </si>
 </sst>
 </file>
@@ -222,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -230,7 +269,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -239,7 +277,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -626,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE09038-58F7-41EC-BCB8-E1560CEA0B13}">
-  <dimension ref="B2:L11"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -639,19 +676,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
@@ -661,73 +700,60 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="5"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>24.287144000000001</v>
+        <v>24.289328000000001</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>319.37594360000003</v>
+        <v>319.40466320000002</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="5"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="2">
-        <f>34.248+12.308+179</f>
-        <v>225.55599999999998</v>
+        <f>52.966+55.881+90.75</f>
+        <v>199.59700000000001</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -735,42 +761,79 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="5"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>93.819943600000045</v>
+        <v>119.80766320000001</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J10" t="s">
-        <v>8</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
       <c r="J11" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="2">
+        <v>431.24400000000003</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="2">
+        <v>230.589</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -780,32 +843,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80541974-8C14-409D-AE86-81AA1983D3C9}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>16</v>
+      <c r="A1" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
